--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed5/result_data_KNN.xlsx
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.766</v>
+        <v>6.068</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.52</v>
+        <v>-7.507</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.542</v>
+        <v>-21.519</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.512</v>
+        <v>5.944</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.8</v>
+        <v>6.225</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.558</v>
+        <v>-7.257</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.716</v>
+        <v>6.805</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.336</v>
+        <v>-21.351</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.190000000000001</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.48</v>
+        <v>-20.945</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>7.866</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.93</v>
+        <v>-20.093</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.344000000000001</v>
+        <v>-7.874</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.458</v>
+        <v>5.75</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.038</v>
+        <v>-21.553</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.778</v>
+        <v>-22.209</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.126</v>
+        <v>-22.21</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.518</v>
+        <v>5.331999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.851999999999999</v>
+        <v>-8.303000000000001</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.606</v>
+        <v>-21.586</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.794</v>
+        <v>-21.637</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.818</v>
+        <v>-21.55</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.260999999999999</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.576000000000001</v>
+        <v>-6.962000000000001</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.47</v>
+        <v>-21.522</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.55</v>
+        <v>-6.931999999999999</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.44</v>
+        <v>-20.828</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>5.558</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.852000000000001</v>
+        <v>7.468000000000001</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.568000000000001</v>
+        <v>-7.873</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
